--- a/public/template_report/purchase_template.xlsx
+++ b/public/template_report/purchase_template.xlsx
@@ -112,13 +112,13 @@
     <t xml:space="preserve"> Jl. Industri Timur Raya Blok WW5 No. 18</t>
   </si>
   <si>
-    <t>Jababeka Phase 2 Cikarang Pusat</t>
-  </si>
-  <si>
     <t>Remark :</t>
   </si>
   <si>
     <t>JOB NUMBER</t>
+  </si>
+  <si>
+    <t>Jababeka Phase 2 Cikarang Utara</t>
   </si>
 </sst>
 </file>
@@ -454,6 +454,45 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -478,42 +517,6 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -522,9 +525,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -571,7 +571,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -638,7 +638,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -936,7 +936,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:L6"/>
+      <selection activeCell="A6" sqref="A6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,113 +960,113 @@
       <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:12" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
       <c r="I3" s="31"/>
       <c r="J3" s="30"/>
       <c r="K3" s="29"/>
       <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
       <c r="I4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
       <c r="I5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
     </row>
     <row r="6" spans="1:12" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
+      <c r="A6" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
       <c r="I6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
     </row>
     <row r="7" spans="1:12" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:12" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
       <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:12" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1096,41 +1096,41 @@
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
       <c r="I11" s="10"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
     </row>
     <row r="12" spans="1:12" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
       <c r="J12" s="37"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
     </row>
     <row r="13" spans="1:12" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
@@ -1140,18 +1140,18 @@
       <c r="L13" s="38"/>
     </row>
     <row r="14" spans="1:12" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
     </row>
     <row r="15" spans="1:12" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
@@ -1185,18 +1185,18 @@
       <c r="A19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="45"/>
+      <c r="B19" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="58"/>
       <c r="D19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
       <c r="H19" s="7" t="s">
         <v>7</v>
       </c>
@@ -1206,10 +1206,10 @@
       <c r="J19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="47" t="s">
+      <c r="K19" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="L19" s="47"/>
+      <c r="L19" s="60"/>
     </row>
     <row r="20" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -1222,76 +1222,76 @@
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
       <c r="J20" s="35"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H21" s="19"/>
-      <c r="I21" s="58" t="s">
+      <c r="I21" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J21" s="58"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="58" t="s">
+      <c r="I22" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="58"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
     </row>
     <row r="23" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="58"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H26" s="59" t="s">
+      <c r="H26" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1304,23 +1304,44 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
     </row>
     <row r="33" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H33" s="55" t="s">
+      <c r="H33" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="J5:L5"/>
     <mergeCell ref="H32:L32"/>
     <mergeCell ref="H33:L33"/>
     <mergeCell ref="K21:L21"/>
@@ -1333,27 +1354,6 @@
     <mergeCell ref="H26:L26"/>
     <mergeCell ref="C25:H25"/>
     <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A11:H11"/>
   </mergeCells>
   <dataValidations count="26">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Quantity in this column under this heading" sqref="A19:A20"/>

--- a/public/template_report/purchase_template.xlsx
+++ b/public/template_report/purchase_template.xlsx
@@ -454,6 +454,60 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -471,60 +525,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -560,73 +560,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>111920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>46298</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1043283" cy="449002"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="3145" b="30939"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="111920" y="46298"/>
-          <a:ext cx="1043283" cy="449002"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>771525</xdr:colOff>
       <xdr:row>26</xdr:row>
@@ -638,7 +571,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -647,7 +580,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -664,6 +597,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>524007</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1447800" cy="524007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -936,7 +913,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H6"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,113 +937,113 @@
       <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:12" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
       <c r="I3" s="31"/>
       <c r="J3" s="30"/>
       <c r="K3" s="29"/>
       <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
       <c r="I4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
       <c r="I5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
     </row>
     <row r="6" spans="1:12" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
       <c r="I6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
     </row>
     <row r="7" spans="1:12" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
     </row>
     <row r="8" spans="1:12" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
       <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:12" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1096,41 +1073,41 @@
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
       <c r="I11" s="10"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
       <c r="J12" s="37"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
     </row>
     <row r="13" spans="1:12" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
@@ -1140,18 +1117,18 @@
       <c r="L13" s="38"/>
     </row>
     <row r="14" spans="1:12" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
     </row>
     <row r="15" spans="1:12" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
@@ -1185,18 +1162,18 @@
       <c r="A19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="58"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="7" t="s">
         <v>7</v>
       </c>
@@ -1206,10 +1183,10 @@
       <c r="J19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="60" t="s">
+      <c r="K19" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="L19" s="60"/>
+      <c r="L19" s="47"/>
     </row>
     <row r="20" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -1222,76 +1199,76 @@
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
       <c r="J20" s="35"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H21" s="19"/>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="J21" s="44"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="44" t="s">
+      <c r="I22" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="44"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
     </row>
     <row r="23" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="44" t="s">
+      <c r="I23" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="44"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H26" s="45" t="s">
+      <c r="H26" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1304,23 +1281,44 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
     </row>
     <row r="33" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H33" s="41" t="s">
+      <c r="H33" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="J5:L5"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="J6:L6"/>
@@ -1333,27 +1331,6 @@
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C28:H28"/>
   </mergeCells>
   <dataValidations count="26">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Quantity in this column under this heading" sqref="A19:A20"/>
